--- a/out_khanka.xlsx
+++ b/out_khanka.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="192">
   <si>
     <t>May</t>
   </si>
@@ -23,7 +23,7 @@
     <t>nan</t>
   </si>
   <si>
-    <t>10.552016129</t>
+    <t>9.85</t>
   </si>
   <si>
     <t>24.8</t>
@@ -32,7 +32,7 @@
     <t>0.4</t>
   </si>
   <si>
-    <t>73.6194331984</t>
+    <t>76.0</t>
   </si>
   <si>
     <t>100.0</t>
@@ -41,7 +41,7 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>5.50666666667</t>
+    <t>3.0</t>
   </si>
   <si>
     <t>16.0</t>
@@ -50,7 +50,7 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>13.4293877551</t>
+    <t>13.1</t>
   </si>
   <si>
     <t>28.2</t>
@@ -59,7 +59,7 @@
     <t>3.7</t>
   </si>
   <si>
-    <t>68.4816326531</t>
+    <t>69.0</t>
   </si>
   <si>
     <t>99.0</t>
@@ -68,7 +68,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>2.83076923077</t>
+    <t>2.0</t>
   </si>
   <si>
     <t>8.0</t>
@@ -77,7 +77,7 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>12.1239837398</t>
+    <t>11.55</t>
   </si>
   <si>
     <t>30.7</t>
@@ -86,19 +86,16 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>74.8163265306</t>
+    <t>78.0</t>
   </si>
   <si>
     <t>32.0</t>
   </si>
   <si>
-    <t>4.36041666667</t>
-  </si>
-  <si>
     <t>42.0</t>
   </si>
   <si>
-    <t>11.5478632479</t>
+    <t>11.3</t>
   </si>
   <si>
     <t>23.5</t>
@@ -107,13 +104,10 @@
     <t>1.7</t>
   </si>
   <si>
-    <t>80.678111588</t>
-  </si>
-  <si>
-    <t>4.94716981132</t>
-  </si>
-  <si>
-    <t>14.7317073171</t>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>14.15</t>
   </si>
   <si>
     <t>30.5</t>
@@ -122,13 +116,13 @@
     <t>1.8</t>
   </si>
   <si>
-    <t>64.4634146341</t>
+    <t>65.0</t>
   </si>
   <si>
     <t>17.0</t>
   </si>
   <si>
-    <t>4.55714285714</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>10.0</t>
@@ -137,7 +131,7 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>12.9282258065</t>
+    <t>12.75</t>
   </si>
   <si>
     <t>25.7</t>
@@ -146,16 +140,16 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>77.7379032258</t>
-  </si>
-  <si>
-    <t>5.96111111111</t>
+    <t>80.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
   <si>
     <t>47.0</t>
   </si>
   <si>
-    <t>10.8286290323</t>
+    <t>9.55</t>
   </si>
   <si>
     <t>24.5</t>
@@ -164,22 +158,19 @@
     <t>3.5</t>
   </si>
   <si>
-    <t>75.064516129</t>
+    <t>77.0</t>
   </si>
   <si>
     <t>23.0</t>
   </si>
   <si>
-    <t>4.05789473684</t>
-  </si>
-  <si>
     <t>24.0</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>13.252016129</t>
+    <t>12.2</t>
   </si>
   <si>
     <t>28.0</t>
@@ -188,16 +179,16 @@
     <t>4.6</t>
   </si>
   <si>
-    <t>71.2298387097</t>
+    <t>73.0</t>
   </si>
   <si>
     <t>18.0</t>
   </si>
   <si>
-    <t>2.14615384615</t>
-  </si>
-  <si>
-    <t>12.6282258065</t>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>11.65</t>
   </si>
   <si>
     <t>28.4</t>
@@ -206,22 +197,16 @@
     <t>2.9</t>
   </si>
   <si>
-    <t>74.1048387097</t>
-  </si>
-  <si>
     <t>97.0</t>
   </si>
   <si>
     <t>15.0</t>
   </si>
   <si>
-    <t>5.06153846154</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>12.9435483871</t>
+    <t>12.5</t>
   </si>
   <si>
     <t>30.2</t>
@@ -230,52 +215,37 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>73.3588709677</t>
-  </si>
-  <si>
-    <t>3.86153846154</t>
-  </si>
-  <si>
-    <t>12.3608870968</t>
-  </si>
-  <si>
     <t>29.3</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
-    <t>68.8983739837</t>
+    <t>74.0</t>
   </si>
   <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>5.056</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
-    <t>19.9872340426</t>
+    <t>19.6</t>
   </si>
   <si>
     <t>13.3</t>
   </si>
   <si>
-    <t>86.3247863248</t>
+    <t>91.0</t>
   </si>
   <si>
     <t>37.0</t>
   </si>
   <si>
-    <t>6.05454545455</t>
-  </si>
-  <si>
     <t>39.0</t>
   </si>
   <si>
-    <t>20.5506224066</t>
+    <t>20.2</t>
   </si>
   <si>
     <t>31.7</t>
@@ -284,19 +254,16 @@
     <t>5.0</t>
   </si>
   <si>
-    <t>80.9330543933</t>
+    <t>83.0</t>
   </si>
   <si>
     <t>49.0</t>
   </si>
   <si>
-    <t>4.212</t>
-  </si>
-  <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>19.312601626</t>
+    <t>19.0</t>
   </si>
   <si>
     <t>32.8</t>
@@ -305,19 +272,13 @@
     <t>11.7</t>
   </si>
   <si>
-    <t>79.1795918367</t>
-  </si>
-  <si>
     <t>96.0</t>
   </si>
   <si>
     <t>48.0</t>
   </si>
   <si>
-    <t>3.13333333333</t>
-  </si>
-  <si>
-    <t>21.6652719665</t>
+    <t>21.1</t>
   </si>
   <si>
     <t>30.0</t>
@@ -326,22 +287,16 @@
     <t>14.5</t>
   </si>
   <si>
-    <t>85.9414225941</t>
+    <t>89.0</t>
   </si>
   <si>
     <t>54.0</t>
   </si>
   <si>
-    <t>9.33333333333</t>
-  </si>
-  <si>
     <t>33.0</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>19.2465306122</t>
+    <t>18.8</t>
   </si>
   <si>
     <t>28.7</t>
@@ -350,19 +305,16 @@
     <t>11.9</t>
   </si>
   <si>
-    <t>87.106122449</t>
+    <t>93.0</t>
   </si>
   <si>
     <t>56.0</t>
   </si>
   <si>
-    <t>9.88275862069</t>
-  </si>
-  <si>
     <t>36.0</t>
   </si>
   <si>
-    <t>21.3817813765</t>
+    <t>21.2</t>
   </si>
   <si>
     <t>29.5</t>
@@ -371,16 +323,13 @@
     <t>10.4</t>
   </si>
   <si>
-    <t>84.8442622951</t>
-  </si>
-  <si>
-    <t>6.60540540541</t>
+    <t>90.0</t>
   </si>
   <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>21.2728395062</t>
+    <t>20.8</t>
   </si>
   <si>
     <t>29.0</t>
@@ -389,19 +338,16 @@
     <t>13.4</t>
   </si>
   <si>
-    <t>83.1358024691</t>
+    <t>87.0</t>
   </si>
   <si>
     <t>52.0</t>
   </si>
   <si>
-    <t>5.9</t>
-  </si>
-  <si>
     <t>21.0</t>
   </si>
   <si>
-    <t>21.2564516129</t>
+    <t>20.7</t>
   </si>
   <si>
     <t>31.3</t>
@@ -410,61 +356,52 @@
     <t>14.6</t>
   </si>
   <si>
-    <t>83.0241935484</t>
+    <t>86.0</t>
   </si>
   <si>
     <t>40.0</t>
   </si>
   <si>
-    <t>7.11162790698</t>
-  </si>
-  <si>
-    <t>21.7708661417</t>
-  </si>
-  <si>
     <t>30.3</t>
   </si>
   <si>
     <t>16.9</t>
   </si>
   <si>
-    <t>84.1220472441</t>
+    <t>88.0</t>
   </si>
   <si>
     <t>53.0</t>
   </si>
   <si>
-    <t>7.15909090909</t>
-  </si>
-  <si>
     <t>38.0</t>
   </si>
   <si>
-    <t>21.7887096774</t>
+    <t>21.05</t>
   </si>
   <si>
     <t>14.9</t>
   </si>
   <si>
-    <t>81.4959677419</t>
-  </si>
-  <si>
-    <t>4.755</t>
-  </si>
-  <si>
-    <t>20.9858870968</t>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
   </si>
   <si>
     <t>31.2</t>
   </si>
   <si>
-    <t>78.4415584416</t>
+    <t>79.0</t>
   </si>
   <si>
     <t>34.0</t>
   </si>
   <si>
-    <t>9.59333333333</t>
+    <t>6.0</t>
   </si>
   <si>
     <t>67.0</t>
@@ -473,7 +410,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>18.9953781513</t>
+    <t>18.25</t>
   </si>
   <si>
     <t>29.1</t>
@@ -482,13 +419,10 @@
     <t>10.7</t>
   </si>
   <si>
-    <t>78.2151898734</t>
-  </si>
-  <si>
-    <t>5.0875</t>
-  </si>
-  <si>
-    <t>15.5966666667</t>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>15.1</t>
   </si>
   <si>
     <t>23.9</t>
@@ -497,28 +431,16 @@
     <t>8.6</t>
   </si>
   <si>
-    <t>83.9874476987</t>
-  </si>
-  <si>
-    <t>3.96153846154</t>
-  </si>
-  <si>
-    <t>18.2745833333</t>
+    <t>17.95</t>
   </si>
   <si>
     <t>11.0</t>
   </si>
   <si>
-    <t>79.4663865546</t>
-  </si>
-  <si>
     <t>98.0</t>
   </si>
   <si>
-    <t>5.68888888889</t>
-  </si>
-  <si>
-    <t>17.8088607595</t>
+    <t>17.6</t>
   </si>
   <si>
     <t>31.4</t>
@@ -527,13 +449,7 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>78.1603375527</t>
-  </si>
-  <si>
-    <t>5.99166666667</t>
-  </si>
-  <si>
-    <t>15.5512605042</t>
+    <t>15.5</t>
   </si>
   <si>
     <t>26.1</t>
@@ -542,13 +458,7 @@
     <t>7.2</t>
   </si>
   <si>
-    <t>84.6835443038</t>
-  </si>
-  <si>
-    <t>4.40384615385</t>
-  </si>
-  <si>
-    <t>20.4161016949</t>
+    <t>20.1</t>
   </si>
   <si>
     <t>34.7</t>
@@ -557,16 +467,10 @@
     <t>9.4</t>
   </si>
   <si>
-    <t>79.6398305085</t>
-  </si>
-  <si>
     <t>45.0</t>
   </si>
   <si>
-    <t>3.70666666667</t>
-  </si>
-  <si>
-    <t>17.1594142259</t>
+    <t>16.6</t>
   </si>
   <si>
     <t>29.9</t>
@@ -575,25 +479,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>81.4979079498</t>
-  </si>
-  <si>
-    <t>3.93703703704</t>
-  </si>
-  <si>
-    <t>17.1004166667</t>
-  </si>
-  <si>
-    <t>81.6569037657</t>
-  </si>
-  <si>
-    <t>5.46153846154</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>18.1845833333</t>
+    <t>16.2</t>
   </si>
   <si>
     <t>29.8</t>
@@ -602,61 +488,37 @@
     <t>9.9</t>
   </si>
   <si>
-    <t>78.7458333333</t>
-  </si>
-  <si>
-    <t>4.95238095238</t>
-  </si>
-  <si>
-    <t>18.8004166667</t>
+    <t>18.4</t>
   </si>
   <si>
     <t>10.6</t>
   </si>
   <si>
-    <t>79.1083333333</t>
-  </si>
-  <si>
-    <t>4.38181818182</t>
-  </si>
-  <si>
-    <t>17.8216666667</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>77.4353448276</t>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>17.2</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>5.52142857143</t>
-  </si>
-  <si>
     <t>26.0</t>
   </si>
   <si>
     <t>August</t>
   </si>
   <si>
-    <t>21.4687242798</t>
+    <t>21.7</t>
   </si>
   <si>
     <t>11.1</t>
   </si>
   <si>
-    <t>81.1028806584</t>
-  </si>
-  <si>
     <t>43.0</t>
   </si>
   <si>
-    <t>7.37837837838</t>
-  </si>
-  <si>
-    <t>22.2253061224</t>
+    <t>21.9</t>
   </si>
   <si>
     <t>31.9</t>
@@ -665,73 +527,37 @@
     <t>13.5</t>
   </si>
   <si>
-    <t>79.2581967213</t>
-  </si>
-  <si>
-    <t>9.65945945946</t>
-  </si>
-  <si>
     <t>44.0</t>
   </si>
   <si>
-    <t>21.8183673469</t>
-  </si>
-  <si>
     <t>30.9</t>
   </si>
   <si>
-    <t>82.0819672131</t>
-  </si>
-  <si>
-    <t>5.13571428571</t>
-  </si>
-  <si>
-    <t>21.0185185185</t>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>20.9</t>
   </si>
   <si>
     <t>12.1</t>
   </si>
   <si>
-    <t>80.1358024691</t>
-  </si>
-  <si>
     <t>41.0</t>
   </si>
   <si>
-    <t>8.32727272727</t>
-  </si>
-  <si>
-    <t>20.6483606557</t>
-  </si>
-  <si>
     <t>28.1</t>
   </si>
   <si>
     <t>6.3</t>
   </si>
   <si>
-    <t>82.8606557377</t>
-  </si>
-  <si>
-    <t>6.84</t>
-  </si>
-  <si>
     <t>31.0</t>
   </si>
   <si>
-    <t>22.4294354839</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>79.1935483871</t>
-  </si>
-  <si>
-    <t>5.72424242424</t>
-  </si>
-  <si>
-    <t>21.6704918033</t>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>21.45</t>
   </si>
   <si>
     <t>31.6</t>
@@ -740,13 +566,7 @@
     <t>12.4</t>
   </si>
   <si>
-    <t>80.4485596708</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>20.4765182186</t>
+    <t>20.6</t>
   </si>
   <si>
     <t>28.3</t>
@@ -755,52 +575,22 @@
     <t>8.5</t>
   </si>
   <si>
-    <t>83.4291497976</t>
-  </si>
-  <si>
-    <t>7.97777777778</t>
-  </si>
-  <si>
-    <t>21.5612903226</t>
+    <t>22.1</t>
   </si>
   <si>
     <t>9.5</t>
   </si>
   <si>
-    <t>83.2753036437</t>
-  </si>
-  <si>
     <t>46.0</t>
   </si>
   <si>
-    <t>5.64166666667</t>
-  </si>
-  <si>
-    <t>20.9028225806</t>
-  </si>
-  <si>
-    <t>80.0041666667</t>
-  </si>
-  <si>
-    <t>4.29090909091</t>
-  </si>
-  <si>
     <t>13.0</t>
   </si>
   <si>
-    <t>21.4149797571</t>
-  </si>
-  <si>
     <t>30.6</t>
   </si>
   <si>
     <t>15.7</t>
-  </si>
-  <si>
-    <t>83.5025641026</t>
-  </si>
-  <si>
-    <t>7.52222222222</t>
   </si>
 </sst>
 </file>
@@ -905,12 +695,11 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.09183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.09183673469388"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.53571428571429"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.53571428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
@@ -1040,10 +829,10 @@
         <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>19</v>
@@ -1054,16 +843,16 @@
         <v>2008</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>6</v>
@@ -1072,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>16</v>
@@ -1086,31 +875,31 @@
         <v>2009</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,16 +907,16 @@
         <v>2010</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>6</v>
@@ -1136,10 +925,10 @@
         <v>7</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>19</v>
@@ -1150,31 +939,31 @@
         <v>2011</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="F9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,25 +971,25 @@
         <v>2012</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="F10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>18</v>
@@ -1214,28 +1003,28 @@
         <v>2013</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="H11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>4</v>
@@ -1246,25 +1035,25 @@
         <v>2014</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>7</v>
@@ -1278,28 +1067,28 @@
         <v>2015</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>19</v>
@@ -1307,7 +1096,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,28 +1136,28 @@
         <v>2005</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>4</v>
@@ -1379,28 +1168,28 @@
         <v>2006</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>10</v>
@@ -1411,25 +1200,25 @@
         <v>2007</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>16</v>
@@ -1443,31 +1232,31 @@
         <v>2008</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,28 +1264,28 @@
         <v>2009</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>10</v>
@@ -1507,31 +1296,31 @@
         <v>2010</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,31 +1328,31 @@
         <v>2011</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,25 +1360,25 @@
         <v>2012</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>24</v>
@@ -1603,28 +1392,28 @@
         <v>2013</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>19</v>
@@ -1635,28 +1424,28 @@
         <v>2014</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>19</v>
@@ -1667,28 +1456,28 @@
         <v>2015</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>10</v>
@@ -1696,7 +1485,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,16 +1525,16 @@
         <v>2005</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>15</v>
@@ -1754,10 +1543,10 @@
         <v>24</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>10</v>
@@ -1768,28 +1557,28 @@
         <v>2006</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>19</v>
@@ -1800,28 +1589,28 @@
         <v>2007</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>10</v>
@@ -1832,25 +1621,25 @@
         <v>2008</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>16</v>
@@ -1864,28 +1653,28 @@
         <v>2009</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>10</v>
@@ -1896,28 +1685,28 @@
         <v>2010</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>19</v>
@@ -1928,28 +1717,28 @@
         <v>2011</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>19</v>
@@ -1960,28 +1749,28 @@
         <v>2012</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>10</v>
@@ -1992,28 +1781,28 @@
         <v>2013</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>19</v>
@@ -2024,28 +1813,28 @@
         <v>2014</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>10</v>
@@ -2056,36 +1845,36 @@
         <v>2015</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,28 +1914,28 @@
         <v>2005</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>10</v>
@@ -2157,16 +1946,16 @@
         <v>2006</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>6</v>
@@ -2175,10 +1964,10 @@
         <v>16</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>10</v>
@@ -2189,28 +1978,28 @@
         <v>2007</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>19</v>
@@ -2221,28 +2010,28 @@
         <v>2008</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>10</v>
@@ -2253,28 +2042,28 @@
         <v>2009</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>10</v>
@@ -2285,16 +2074,16 @@
         <v>2010</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>15</v>
@@ -2303,7 +2092,7 @@
         <v>24</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>237</v>
+        <v>8</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>16</v>
@@ -2317,28 +2106,28 @@
         <v>2011</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>10</v>
@@ -2349,28 +2138,28 @@
         <v>2012</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>19</v>
@@ -2381,25 +2170,25 @@
         <v>2013</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>24</v>
@@ -2413,28 +2202,28 @@
         <v>2014</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>10</v>
@@ -2445,28 +2234,28 @@
         <v>2015</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>10</v>
